--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1243020608379911</v>
+        <v>-0.1338314788754218</v>
       </c>
       <c r="C2">
-        <v>2.131588938050424</v>
+        <v>2.04803740314168</v>
       </c>
       <c r="D2">
-        <v>21.22560083334914</v>
+        <v>20.30227337679758</v>
       </c>
       <c r="E2">
-        <v>4.607125007349935</v>
+        <v>4.505804409514197</v>
       </c>
       <c r="F2">
-        <v>4.713826149300701</v>
+        <v>4.605038435222934</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.246485675231136</v>
+        <v>-0.2196048395615291</v>
       </c>
       <c r="C3">
-        <v>2.345373773945208</v>
+        <v>2.254442816470436</v>
       </c>
       <c r="D3">
-        <v>19.33065173826034</v>
+        <v>18.45943047502218</v>
       </c>
       <c r="E3">
-        <v>4.396663705386204</v>
+        <v>4.296443933652827</v>
       </c>
       <c r="F3">
-        <v>4.498154218974101</v>
+        <v>4.39180238609223</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.6924834931754604</v>
+        <v>-0.6722431955569657</v>
       </c>
       <c r="C4">
-        <v>1.814664499321882</v>
+        <v>1.734626294717863</v>
       </c>
       <c r="D4">
-        <v>10.78567221865277</v>
+        <v>10.27176916279258</v>
       </c>
       <c r="E4">
-        <v>3.284154719049146</v>
+        <v>3.204960087550636</v>
       </c>
       <c r="F4">
-        <v>3.29371631896608</v>
+        <v>3.211051410560245</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2778078423057671</v>
+        <v>-0.2619961853625158</v>
       </c>
       <c r="C5">
-        <v>1.655704769799213</v>
+        <v>1.574840796137216</v>
       </c>
       <c r="D5">
-        <v>12.12863580349151</v>
+        <v>11.52157846430296</v>
       </c>
       <c r="E5">
-        <v>3.482619101120809</v>
+        <v>3.394345071483298</v>
       </c>
       <c r="F5">
-        <v>3.56664885913509</v>
+        <v>3.472135163382664</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2358027714400601</v>
+        <v>-0.2304210235372018</v>
       </c>
       <c r="C6">
-        <v>1.759610300011659</v>
+        <v>1.666997890576107</v>
       </c>
       <c r="D6">
-        <v>10.62893045379797</v>
+        <v>10.06653556874298</v>
       </c>
       <c r="E6">
-        <v>3.260204050944967</v>
+        <v>3.172780416092955</v>
       </c>
       <c r="F6">
-        <v>3.345936034707538</v>
+        <v>3.251114276439574</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.298460077026763</v>
+        <v>-0.2737229439002919</v>
       </c>
       <c r="C7">
-        <v>1.862981289594231</v>
+        <v>1.775059182383401</v>
       </c>
       <c r="D7">
-        <v>11.19011793689163</v>
+        <v>10.57130412137001</v>
       </c>
       <c r="E7">
-        <v>3.345163364753899</v>
+        <v>3.251354198079626</v>
       </c>
       <c r="F7">
-        <v>3.434363767755224</v>
+        <v>3.333738739228395</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1522653927570955</v>
+        <v>-0.1641233777288165</v>
       </c>
       <c r="C8">
-        <v>1.879133647755224</v>
+        <v>1.781553791812374</v>
       </c>
       <c r="D8">
-        <v>12.22827700966262</v>
+        <v>11.51292075854603</v>
       </c>
       <c r="E8">
-        <v>3.496895338677241</v>
+        <v>3.393069518672736</v>
       </c>
       <c r="F8">
-        <v>3.608152585070817</v>
+        <v>3.493402108638973</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1480098934960471</v>
+        <v>-0.1510345969195566</v>
       </c>
       <c r="C9">
-        <v>1.974005759378139</v>
+        <v>1.85455728114967</v>
       </c>
       <c r="D9">
-        <v>12.1279951348327</v>
+        <v>11.36885938571983</v>
       </c>
       <c r="E9">
-        <v>3.482527119037654</v>
+        <v>3.37177392268815</v>
       </c>
       <c r="F9">
-        <v>3.601500908291072</v>
+        <v>3.478857733797603</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1215052683052565</v>
+        <v>-0.1166201009408896</v>
       </c>
       <c r="C10">
-        <v>2.13293236632482</v>
+        <v>1.99642669408382</v>
       </c>
       <c r="D10">
-        <v>13.91697604669186</v>
+        <v>12.99001923899349</v>
       </c>
       <c r="E10">
-        <v>3.730546346943281</v>
+        <v>3.604166927182131</v>
       </c>
       <c r="F10">
-        <v>3.869316926703084</v>
+        <v>3.728713727525796</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.05291142619329255</v>
+        <v>-0.07784734317373232</v>
       </c>
       <c r="C11">
-        <v>2.112882556949164</v>
+        <v>1.990677678875613</v>
       </c>
       <c r="D11">
-        <v>14.16894076101807</v>
+        <v>13.16673245956295</v>
       </c>
       <c r="E11">
-        <v>3.764165347194258</v>
+        <v>3.628599242071649</v>
       </c>
       <c r="F11">
-        <v>3.917480428008452</v>
+        <v>3.764708707805368</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1338314788754218</v>
+        <v>-0.2196048395615291</v>
       </c>
       <c r="C2">
-        <v>2.04803740314168</v>
+        <v>2.254442816470436</v>
       </c>
       <c r="D2">
-        <v>20.30227337679758</v>
+        <v>18.45943047502218</v>
       </c>
       <c r="E2">
-        <v>4.505804409514197</v>
+        <v>4.296443933652827</v>
       </c>
       <c r="F2">
-        <v>4.605038435222934</v>
+        <v>4.39180238609223</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.2196048395615291</v>
+        <v>-0.6722431955569657</v>
       </c>
       <c r="C3">
-        <v>2.254442816470436</v>
+        <v>1.734626294717863</v>
       </c>
       <c r="D3">
-        <v>18.45943047502218</v>
+        <v>10.27176916279258</v>
       </c>
       <c r="E3">
-        <v>4.296443933652827</v>
+        <v>3.204960087550636</v>
       </c>
       <c r="F3">
-        <v>4.39180238609223</v>
+        <v>3.211051410560245</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.6722431955569657</v>
+        <v>-0.2619961853625158</v>
       </c>
       <c r="C4">
-        <v>1.734626294717863</v>
+        <v>1.574840796137216</v>
       </c>
       <c r="D4">
-        <v>10.27176916279258</v>
+        <v>11.52157846430296</v>
       </c>
       <c r="E4">
-        <v>3.204960087550636</v>
+        <v>3.394345071483298</v>
       </c>
       <c r="F4">
-        <v>3.211051410560245</v>
+        <v>3.472135163382664</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2619961853625158</v>
+        <v>-0.2304210235372018</v>
       </c>
       <c r="C5">
-        <v>1.574840796137216</v>
+        <v>1.666997890576107</v>
       </c>
       <c r="D5">
-        <v>11.52157846430296</v>
+        <v>10.06653556874298</v>
       </c>
       <c r="E5">
-        <v>3.394345071483298</v>
+        <v>3.172780416092955</v>
       </c>
       <c r="F5">
-        <v>3.472135163382664</v>
+        <v>3.251114276439574</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2304210235372018</v>
+        <v>-0.2737229439002919</v>
       </c>
       <c r="C6">
-        <v>1.666997890576107</v>
+        <v>1.775059182383401</v>
       </c>
       <c r="D6">
-        <v>10.06653556874298</v>
+        <v>10.57130412137001</v>
       </c>
       <c r="E6">
-        <v>3.172780416092955</v>
+        <v>3.251354198079626</v>
       </c>
       <c r="F6">
-        <v>3.251114276439574</v>
+        <v>3.333738739228395</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2737229439002919</v>
+        <v>-0.1641233777288165</v>
       </c>
       <c r="C7">
-        <v>1.775059182383401</v>
+        <v>1.781553791812374</v>
       </c>
       <c r="D7">
-        <v>10.57130412137001</v>
+        <v>11.51292075854603</v>
       </c>
       <c r="E7">
-        <v>3.251354198079626</v>
+        <v>3.393069518672736</v>
       </c>
       <c r="F7">
-        <v>3.333738739228395</v>
+        <v>3.493402108638973</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1641233777288165</v>
+        <v>-0.1510345969195566</v>
       </c>
       <c r="C8">
-        <v>1.781553791812374</v>
+        <v>1.85455728114967</v>
       </c>
       <c r="D8">
-        <v>11.51292075854603</v>
+        <v>11.36885938571983</v>
       </c>
       <c r="E8">
-        <v>3.393069518672736</v>
+        <v>3.37177392268815</v>
       </c>
       <c r="F8">
-        <v>3.493402108638973</v>
+        <v>3.478857733797603</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1510345969195566</v>
+        <v>-0.1166201009408896</v>
       </c>
       <c r="C9">
-        <v>1.85455728114967</v>
+        <v>1.99642669408382</v>
       </c>
       <c r="D9">
-        <v>11.36885938571983</v>
+        <v>12.99001923899349</v>
       </c>
       <c r="E9">
-        <v>3.37177392268815</v>
+        <v>3.604166927182131</v>
       </c>
       <c r="F9">
-        <v>3.478857733797603</v>
+        <v>3.728713727525796</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1166201009408896</v>
+        <v>-0.07784734317373232</v>
       </c>
       <c r="C10">
-        <v>1.99642669408382</v>
+        <v>1.990677678875613</v>
       </c>
       <c r="D10">
-        <v>12.99001923899349</v>
+        <v>13.16673245956295</v>
       </c>
       <c r="E10">
-        <v>3.604166927182131</v>
+        <v>3.628599242071649</v>
       </c>
       <c r="F10">
-        <v>3.728713727525796</v>
+        <v>3.764708707805368</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07784734317373232</v>
+        <v>-0.04637512304105267</v>
       </c>
       <c r="C11">
-        <v>1.990677678875613</v>
+        <v>2.085006870274704</v>
       </c>
       <c r="D11">
-        <v>13.16673245956295</v>
+        <v>13.21266471962553</v>
       </c>
       <c r="E11">
-        <v>3.628599242071649</v>
+        <v>3.634922931731226</v>
       </c>
       <c r="F11">
-        <v>3.764708707805368</v>
+        <v>3.783039814737283</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2196048395615291</v>
+        <v>-0.1338314788754218</v>
       </c>
       <c r="C2">
-        <v>2.254442816470436</v>
+        <v>2.04803740314168</v>
       </c>
       <c r="D2">
-        <v>18.45943047502218</v>
+        <v>20.30227337679758</v>
       </c>
       <c r="E2">
-        <v>4.296443933652827</v>
+        <v>4.505804409514197</v>
       </c>
       <c r="F2">
-        <v>4.39180238609223</v>
+        <v>4.605038435222934</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.6722431955569657</v>
+        <v>-0.2196048395615291</v>
       </c>
       <c r="C3">
-        <v>1.734626294717863</v>
+        <v>2.254442816470436</v>
       </c>
       <c r="D3">
-        <v>10.27176916279258</v>
+        <v>18.45943047502218</v>
       </c>
       <c r="E3">
-        <v>3.204960087550636</v>
+        <v>4.296443933652827</v>
       </c>
       <c r="F3">
-        <v>3.211051410560245</v>
+        <v>4.39180238609223</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2619961853625158</v>
+        <v>-0.6722431955569657</v>
       </c>
       <c r="C4">
-        <v>1.574840796137216</v>
+        <v>1.734626294717863</v>
       </c>
       <c r="D4">
-        <v>11.52157846430296</v>
+        <v>10.27176916279258</v>
       </c>
       <c r="E4">
-        <v>3.394345071483298</v>
+        <v>3.204960087550636</v>
       </c>
       <c r="F4">
-        <v>3.472135163382664</v>
+        <v>3.211051410560245</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2304210235372018</v>
+        <v>-0.2619961853625158</v>
       </c>
       <c r="C5">
-        <v>1.666997890576107</v>
+        <v>1.574840796137216</v>
       </c>
       <c r="D5">
-        <v>10.06653556874298</v>
+        <v>11.52157846430296</v>
       </c>
       <c r="E5">
-        <v>3.172780416092955</v>
+        <v>3.394345071483298</v>
       </c>
       <c r="F5">
-        <v>3.251114276439574</v>
+        <v>3.472135163382664</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2737229439002919</v>
+        <v>-0.2304210235372018</v>
       </c>
       <c r="C6">
-        <v>1.775059182383401</v>
+        <v>1.666997890576107</v>
       </c>
       <c r="D6">
-        <v>10.57130412137001</v>
+        <v>10.06653556874298</v>
       </c>
       <c r="E6">
-        <v>3.251354198079626</v>
+        <v>3.172780416092955</v>
       </c>
       <c r="F6">
-        <v>3.333738739228395</v>
+        <v>3.251114276439574</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1641233777288165</v>
+        <v>-0.2737229439002919</v>
       </c>
       <c r="C7">
-        <v>1.781553791812374</v>
+        <v>1.775059182383401</v>
       </c>
       <c r="D7">
-        <v>11.51292075854603</v>
+        <v>10.57130412137001</v>
       </c>
       <c r="E7">
-        <v>3.393069518672736</v>
+        <v>3.251354198079626</v>
       </c>
       <c r="F7">
-        <v>3.493402108638973</v>
+        <v>3.333738739228395</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1510345969195566</v>
+        <v>-0.1641233777288165</v>
       </c>
       <c r="C8">
-        <v>1.85455728114967</v>
+        <v>1.781553791812374</v>
       </c>
       <c r="D8">
-        <v>11.36885938571983</v>
+        <v>11.51292075854603</v>
       </c>
       <c r="E8">
-        <v>3.37177392268815</v>
+        <v>3.393069518672736</v>
       </c>
       <c r="F8">
-        <v>3.478857733797603</v>
+        <v>3.493402108638973</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1166201009408896</v>
+        <v>-0.1510345969195566</v>
       </c>
       <c r="C9">
-        <v>1.99642669408382</v>
+        <v>1.85455728114967</v>
       </c>
       <c r="D9">
-        <v>12.99001923899349</v>
+        <v>11.36885938571983</v>
       </c>
       <c r="E9">
-        <v>3.604166927182131</v>
+        <v>3.37177392268815</v>
       </c>
       <c r="F9">
-        <v>3.728713727525796</v>
+        <v>3.478857733797603</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07784734317373232</v>
+        <v>-0.1166201009408896</v>
       </c>
       <c r="C10">
-        <v>1.990677678875613</v>
+        <v>1.99642669408382</v>
       </c>
       <c r="D10">
-        <v>13.16673245956295</v>
+        <v>12.99001923899349</v>
       </c>
       <c r="E10">
-        <v>3.628599242071649</v>
+        <v>3.604166927182131</v>
       </c>
       <c r="F10">
-        <v>3.764708707805368</v>
+        <v>3.728713727525796</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04637512304105267</v>
+        <v>-0.07784734317373232</v>
       </c>
       <c r="C11">
-        <v>2.085006870274704</v>
+        <v>1.990677678875613</v>
       </c>
       <c r="D11">
-        <v>13.21266471962553</v>
+        <v>13.16673245956295</v>
       </c>
       <c r="E11">
-        <v>3.634922931731226</v>
+        <v>3.628599242071649</v>
       </c>
       <c r="F11">
-        <v>3.783039814737283</v>
+        <v>3.764708707805368</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
